--- a/app/src/main/assets/Groceries.xlsx
+++ b/app/src/main/assets/Groceries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302644CA-D68D-F044-BE8D-202E379AB58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8E4089-982D-6B47-9E2B-60CBD5581064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:F532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/src/main/assets/Groceries.xlsx
+++ b/app/src/main/assets/Groceries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8E4089-982D-6B47-9E2B-60CBD5581064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B64DA2-E7D8-854F-BF37-4E69734DAB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:F532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A529" sqref="A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/src/main/assets/Groceries.xlsx
+++ b/app/src/main/assets/Groceries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B64DA2-E7D8-854F-BF37-4E69734DAB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D5B4B-995C-6B4F-9BC7-6C4F1D6B02B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>Đường</t>
   </si>
@@ -1540,28 +1540,7 @@
     <t>Mắm tép</t>
   </si>
   <si>
-    <t>Nước mắm cá (loại đặc biệt)</t>
-  </si>
-  <si>
     <t>Nước mắm</t>
-  </si>
-  <si>
-    <t>Nước mắm loại II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nước mắm cá </t>
-  </si>
-  <si>
-    <t>Nước mắm cô</t>
-  </si>
-  <si>
-    <t>Tương ngô</t>
-  </si>
-  <si>
-    <t>Tương nếp</t>
-  </si>
-  <si>
-    <t>Tương ớt</t>
   </si>
   <si>
     <t>Xì dầu</t>
@@ -1642,7 +1621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1665,25 +1644,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2018,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D172C0-E49C-4A4B-B529-386C6E53D8C9}">
-  <dimension ref="A1:F532"/>
+  <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A529" sqref="A529"/>
+    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4692,7 +4659,9 @@
       <c r="D20" s="1">
         <v>1.7</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1">
         <v>25.7</v>
       </c>
@@ -4810,7 +4779,9 @@
       <c r="D26" s="1">
         <v>1.4</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
         <v>28.4</v>
       </c>
@@ -4888,7 +4859,9 @@
       <c r="D30" s="1">
         <v>1.5</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1">
         <v>21.5</v>
       </c>
@@ -4986,7 +4959,9 @@
       <c r="D35" s="1">
         <v>0.8</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1">
         <v>25.1</v>
       </c>
@@ -5064,7 +5039,9 @@
       <c r="D39" s="1">
         <v>0.6</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="1">
         <v>84.7</v>
       </c>
@@ -5102,7 +5079,9 @@
       <c r="D41" s="1">
         <v>0.2</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="1">
         <v>84.1</v>
       </c>
@@ -5160,7 +5139,9 @@
       <c r="D44" s="1">
         <v>0.7</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1">
         <v>84.3</v>
       </c>
@@ -5258,7 +5239,9 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
       <c r="F49" s="1">
         <v>84.3</v>
       </c>
@@ -5956,7 +5939,9 @@
       <c r="D84" s="1">
         <v>0.6</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
       <c r="F84" s="1">
         <v>2.4</v>
       </c>
@@ -6034,7 +6019,9 @@
       <c r="D88" s="1">
         <v>1.5</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
       <c r="F88" s="1">
         <v>3.6</v>
       </c>
@@ -6092,7 +6079,9 @@
       <c r="D91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
       <c r="F91" s="1">
         <v>4.5</v>
       </c>
@@ -6170,7 +6159,9 @@
       <c r="D95" s="1">
         <v>1.6</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
       <c r="F95" s="1">
         <v>1.9</v>
       </c>
@@ -6248,7 +6239,9 @@
       <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
       <c r="F99" s="1">
         <v>1.5</v>
       </c>
@@ -6306,7 +6299,9 @@
       <c r="D102" s="1">
         <v>1.3</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
       <c r="F102" s="1">
         <v>10.8</v>
       </c>
@@ -6364,7 +6359,9 @@
       <c r="D105" s="1">
         <v>1</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1">
         <v>6</v>
       </c>
@@ -6382,7 +6379,9 @@
       <c r="D106" s="1">
         <v>2</v>
       </c>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
       <c r="F106" s="1">
         <v>5.4</v>
       </c>
@@ -6400,7 +6399,9 @@
       <c r="D107" s="1">
         <v>1.9</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
       <c r="F107" s="1">
         <v>1.6</v>
       </c>
@@ -6418,7 +6419,9 @@
       <c r="D108" s="1">
         <v>0.4</v>
       </c>
-      <c r="E108" s="1"/>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
       <c r="F108" s="1">
         <v>0.8</v>
       </c>
@@ -6456,7 +6459,9 @@
       <c r="D110" s="1">
         <v>0.8</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
       <c r="F110" s="1">
         <v>2</v>
       </c>
@@ -6472,7 +6477,9 @@
       <c r="D111" s="1">
         <v>0.8</v>
       </c>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
       <c r="F111" s="1">
         <v>2</v>
       </c>
@@ -6490,7 +6497,9 @@
       <c r="D112" s="1">
         <v>5</v>
       </c>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="1">
         <v>13.3</v>
       </c>
@@ -6568,7 +6577,9 @@
       <c r="D116" s="1">
         <v>0.8</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
       <c r="F116" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -6666,7 +6677,9 @@
       <c r="D121" s="1">
         <v>1.3</v>
       </c>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
       <c r="F121" s="1">
         <v>4.3</v>
       </c>
@@ -6764,7 +6777,9 @@
       <c r="D126" s="1">
         <v>1.5</v>
       </c>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
       <c r="F126" s="1">
         <v>3.5</v>
       </c>
@@ -6782,7 +6797,9 @@
       <c r="D127" s="1">
         <v>2.9</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
       <c r="F127" s="1">
         <v>2.8</v>
       </c>
@@ -6820,7 +6837,9 @@
       <c r="D129" s="1">
         <v>4.3</v>
       </c>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
       <c r="F129" s="1">
         <v>5.4</v>
       </c>
@@ -6838,7 +6857,9 @@
       <c r="D130" s="1">
         <v>7.5</v>
       </c>
-      <c r="E130" s="1"/>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
       <c r="F130" s="1">
         <v>4</v>
       </c>
@@ -6856,7 +6877,9 @@
       <c r="D131" s="1">
         <v>3.9</v>
       </c>
-      <c r="E131" s="1"/>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
       <c r="F131" s="1">
         <v>2.9</v>
       </c>
@@ -6874,7 +6897,9 @@
       <c r="D132" s="1">
         <v>7</v>
       </c>
-      <c r="E132" s="1"/>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
       <c r="F132" s="1">
         <v>12.6</v>
       </c>
@@ -6892,7 +6917,9 @@
       <c r="D133" s="1">
         <v>1.4</v>
       </c>
-      <c r="E133" s="1"/>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
       <c r="F133" s="1">
         <v>1.4</v>
       </c>
@@ -7090,7 +7117,9 @@
       <c r="D143" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E143" s="1"/>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
       <c r="F143" s="1">
         <v>2.5</v>
       </c>
@@ -7188,7 +7217,9 @@
       <c r="D148" s="1">
         <v>1.9</v>
       </c>
-      <c r="E148" s="1"/>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
       <c r="F148" s="1">
         <v>4.8</v>
       </c>
@@ -7206,7 +7237,9 @@
       <c r="D149" s="1">
         <v>2.7</v>
       </c>
-      <c r="E149" s="1"/>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
       <c r="F149" s="1">
         <v>1.7</v>
       </c>
@@ -7304,7 +7337,9 @@
       <c r="D154" s="1">
         <v>2.9</v>
       </c>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
       <c r="F154" s="1">
         <v>2.7</v>
       </c>
@@ -7422,7 +7457,9 @@
       <c r="D160" s="1">
         <v>2.7</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
       <c r="F160" s="1">
         <v>2.8</v>
       </c>
@@ -7440,7 +7477,9 @@
       <c r="D161" s="1">
         <v>3.1</v>
       </c>
-      <c r="E161" s="1"/>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
       <c r="F161" s="1">
         <v>3.1</v>
       </c>
@@ -7458,7 +7497,9 @@
       <c r="D162" s="1">
         <v>3.2</v>
       </c>
-      <c r="E162" s="1"/>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
       <c r="F162" s="1">
         <v>1.8</v>
       </c>
@@ -7476,7 +7517,9 @@
       <c r="D163" s="1">
         <v>2</v>
       </c>
-      <c r="E163" s="1"/>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
       <c r="F163" s="1">
         <v>1.4</v>
       </c>
@@ -7574,7 +7617,9 @@
       <c r="D168" s="1">
         <v>1.5</v>
       </c>
-      <c r="E168" s="1"/>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
       <c r="F168" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -7592,7 +7637,9 @@
       <c r="D169" s="1">
         <v>5.3</v>
       </c>
-      <c r="E169" s="1"/>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
       <c r="F169" s="1">
         <v>3.4</v>
       </c>
@@ -7630,7 +7677,9 @@
       <c r="D171" s="1">
         <v>4.7</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
       <c r="F171" s="1">
         <v>2.8</v>
       </c>
@@ -7648,7 +7697,9 @@
       <c r="D172" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E172" s="1"/>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
       <c r="F172" s="1">
         <v>1.8</v>
       </c>
@@ -7686,7 +7737,9 @@
       <c r="D174" s="1">
         <v>1.4</v>
       </c>
-      <c r="E174" s="1"/>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
       <c r="F174" s="1">
         <v>3</v>
       </c>
@@ -7704,7 +7757,9 @@
       <c r="D175" s="1">
         <v>6.5</v>
       </c>
-      <c r="E175" s="1"/>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
       <c r="F175" s="1">
         <v>5.5</v>
       </c>
@@ -7722,7 +7777,9 @@
       <c r="D176" s="1">
         <v>2.5</v>
       </c>
-      <c r="E176" s="1"/>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
       <c r="F176" s="1">
         <v>1.9</v>
       </c>
@@ -7740,7 +7797,9 @@
       <c r="D177" s="1">
         <v>2</v>
       </c>
-      <c r="E177" s="1"/>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
       <c r="F177" s="1">
         <v>2.4</v>
       </c>
@@ -7758,7 +7817,9 @@
       <c r="D178" s="1">
         <v>1.8</v>
       </c>
-      <c r="E178" s="1"/>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
       <c r="F178" s="1">
         <v>3</v>
       </c>
@@ -7896,7 +7957,9 @@
       <c r="D185" s="1">
         <v>2.9</v>
       </c>
-      <c r="E185" s="1"/>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
       <c r="F185" s="1">
         <v>3.4</v>
       </c>
@@ -7934,7 +7997,9 @@
       <c r="D187" s="1">
         <v>1.4</v>
       </c>
-      <c r="E187" s="1"/>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
       <c r="F187" s="1">
         <v>5.9</v>
       </c>
@@ -7992,7 +8057,9 @@
       <c r="D190" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E190" s="1"/>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
       <c r="F190" s="1">
         <v>1.5</v>
       </c>
@@ -8010,7 +8077,9 @@
       <c r="D191" s="1">
         <v>0.6</v>
       </c>
-      <c r="E191" s="1"/>
+      <c r="E191" s="1">
+        <v>0</v>
+      </c>
       <c r="F191" s="1">
         <v>1</v>
       </c>
@@ -8028,7 +8097,9 @@
       <c r="D192" s="1">
         <v>1.3</v>
       </c>
-      <c r="E192" s="1"/>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
       <c r="F192" s="1">
         <v>2</v>
       </c>
@@ -8046,7 +8117,9 @@
       <c r="D193" s="1">
         <v>1.5</v>
       </c>
-      <c r="E193" s="1"/>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
       <c r="F193" s="1">
         <v>2.5</v>
       </c>
@@ -8064,7 +8137,9 @@
       <c r="D194" s="1">
         <v>1.2</v>
       </c>
-      <c r="E194" s="1"/>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
       <c r="F194" s="1">
         <v>3.3</v>
       </c>
@@ -8082,7 +8157,9 @@
       <c r="D195" s="1">
         <v>1.8</v>
       </c>
-      <c r="E195" s="1"/>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
       <c r="F195" s="1">
         <v>2.4</v>
       </c>
@@ -8100,7 +8177,9 @@
       <c r="D196" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E196" s="1"/>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
       <c r="F196" s="1">
         <v>1.3</v>
       </c>
@@ -8118,7 +8197,9 @@
       <c r="D197" s="1">
         <v>0.8</v>
       </c>
-      <c r="E197" s="1"/>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
       <c r="F197" s="1">
         <v>2.5</v>
       </c>
@@ -8136,7 +8217,9 @@
       <c r="D198" s="1">
         <v>5</v>
       </c>
-      <c r="E198" s="1"/>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
       <c r="F198" s="1">
         <v>4.8</v>
       </c>
@@ -8154,7 +8237,9 @@
       <c r="D199" s="1">
         <v>1.4</v>
       </c>
-      <c r="E199" s="1"/>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
       <c r="F199" s="1">
         <v>4</v>
       </c>
@@ -8172,7 +8257,9 @@
       <c r="D200" s="1">
         <v>1.3</v>
       </c>
-      <c r="E200" s="1"/>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
       <c r="F200" s="1">
         <v>4.7</v>
       </c>
@@ -8190,7 +8277,9 @@
       <c r="D201" s="1">
         <v>2.5</v>
       </c>
-      <c r="E201" s="1"/>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
       <c r="F201" s="1">
         <v>1.5</v>
       </c>
@@ -8508,7 +8597,9 @@
       <c r="D217" s="1">
         <v>0.6</v>
       </c>
-      <c r="E217" s="1"/>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
       <c r="F217" s="1">
         <v>6.2</v>
       </c>
@@ -8626,7 +8717,9 @@
       <c r="D223" s="1">
         <v>0.8</v>
       </c>
-      <c r="E223" s="1"/>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
       <c r="F223" s="1">
         <v>6.5</v>
       </c>
@@ -8724,7 +8817,9 @@
       <c r="D228" s="1">
         <v>1.4</v>
       </c>
-      <c r="E228" s="1"/>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
       <c r="F228" s="1">
         <v>7.2</v>
       </c>
@@ -8762,7 +8857,9 @@
       <c r="D230" s="1">
         <v>0.9</v>
       </c>
-      <c r="E230" s="1"/>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
       <c r="F230" s="1">
         <v>8.6</v>
       </c>
@@ -8860,7 +8957,9 @@
       <c r="D235" s="1">
         <v>0.2</v>
       </c>
-      <c r="E235" s="1"/>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
       <c r="F235" s="1">
         <v>5.7</v>
       </c>
@@ -8918,7 +9017,9 @@
       <c r="D238" s="1">
         <v>2.9</v>
       </c>
-      <c r="E238" s="1"/>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
       <c r="F238" s="1">
         <v>67</v>
       </c>
@@ -8936,7 +9037,9 @@
       <c r="D239" s="1">
         <v>1.5</v>
       </c>
-      <c r="E239" s="1"/>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
       <c r="F239" s="1">
         <v>14</v>
       </c>
@@ -9094,7 +9197,9 @@
       <c r="D247" s="1">
         <v>0.4</v>
       </c>
-      <c r="E247" s="1"/>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
       <c r="F247" s="1">
         <v>3.1</v>
       </c>
@@ -9112,7 +9217,9 @@
       <c r="D248" s="1">
         <v>1.2</v>
       </c>
-      <c r="E248" s="1"/>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
       <c r="F248" s="1">
         <v>2.1</v>
       </c>
@@ -9190,7 +9297,9 @@
       <c r="D252" s="1">
         <v>1.8</v>
       </c>
-      <c r="E252" s="1"/>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
       <c r="F252" s="1">
         <v>12.8</v>
       </c>
@@ -9208,7 +9317,9 @@
       <c r="D253" s="1">
         <v>1.3</v>
       </c>
-      <c r="E253" s="1"/>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
       <c r="F253" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -9246,7 +9357,9 @@
       <c r="D255" s="1">
         <v>0.9</v>
       </c>
-      <c r="E255" s="1"/>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
       <c r="F255" s="1">
         <v>5.5</v>
       </c>
@@ -9304,7 +9417,9 @@
       <c r="D258" s="1">
         <v>1.3</v>
       </c>
-      <c r="E258" s="1"/>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
       <c r="F258" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -9402,7 +9517,9 @@
       <c r="D263" s="1">
         <v>1</v>
       </c>
-      <c r="E263" s="1"/>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
       <c r="F263" s="1">
         <v>9.4</v>
       </c>
@@ -14187,193 +14304,253 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>13014</v>
-      </c>
-      <c r="B503" s="2" t="s">
+        <v>13015</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>502</v>
+      </c>
+      <c r="C503" s="1">
+        <v>28</v>
+      </c>
+      <c r="D503" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="E503" s="1">
+        <v>0</v>
+      </c>
+      <c r="F503" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>13015</v>
+        <v>13022</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C504" s="1">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D504" s="1">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="E504" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F504" s="1">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>13016</v>
+        <v>13023</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C505" s="1"/>
-      <c r="D505" s="1"/>
-      <c r="E505" s="1"/>
-      <c r="F505" s="1"/>
+      <c r="C505" s="1">
+        <v>701</v>
+      </c>
+      <c r="D505" s="1">
+        <v>0</v>
+      </c>
+      <c r="E505" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="F505" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>13017</v>
+        <v>14001</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C506" s="1"/>
-      <c r="D506" s="1"/>
-      <c r="E506" s="1"/>
-      <c r="F506" s="1"/>
+      <c r="C506" s="1">
+        <v>11</v>
+      </c>
+      <c r="D506" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E506" s="1">
+        <v>0</v>
+      </c>
+      <c r="F506" s="1">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>13018</v>
+        <v>14002</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C507" s="1"/>
-      <c r="D507" s="1"/>
-      <c r="E507" s="1"/>
-      <c r="F507" s="1"/>
+      <c r="C507" s="1">
+        <v>0</v>
+      </c>
+      <c r="D507" s="1">
+        <v>0</v>
+      </c>
+      <c r="E507" s="1">
+        <v>0</v>
+      </c>
+      <c r="F507" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>13019</v>
+        <v>14003</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C508" s="1"/>
-      <c r="D508" s="1"/>
-      <c r="E508" s="1"/>
-      <c r="F508" s="1"/>
+      <c r="C508" s="1">
+        <v>63</v>
+      </c>
+      <c r="D508" s="1">
+        <v>0</v>
+      </c>
+      <c r="E508" s="1">
+        <v>0</v>
+      </c>
+      <c r="F508" s="1">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>13020</v>
+        <v>14004</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C509" s="1"/>
-      <c r="D509" s="1"/>
-      <c r="E509" s="1"/>
-      <c r="F509" s="1"/>
+      <c r="C509" s="1">
+        <v>42</v>
+      </c>
+      <c r="D509" s="1">
+        <v>0</v>
+      </c>
+      <c r="E509" s="1">
+        <v>0</v>
+      </c>
+      <c r="F509" s="1">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>13021</v>
+        <v>14005</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C510" s="1"/>
-      <c r="D510" s="1"/>
-      <c r="E510" s="1"/>
-      <c r="F510" s="1"/>
+      <c r="C510" s="1">
+        <v>23</v>
+      </c>
+      <c r="D510" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E510" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F510" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>13022</v>
+        <v>14006</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>510</v>
       </c>
       <c r="C511" s="1">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D511" s="1">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="E511" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F511" s="1">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>13023</v>
+        <v>14007</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>511</v>
       </c>
       <c r="C512" s="1">
-        <v>701</v>
+        <v>19</v>
       </c>
       <c r="D512" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E512" s="1">
-        <v>77.8</v>
+        <v>0.6</v>
       </c>
       <c r="F512" s="1">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>14001</v>
+        <v>14008</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>512</v>
       </c>
       <c r="C513" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D513" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E513" s="1">
         <v>0</v>
       </c>
       <c r="F513" s="1">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>14002</v>
+        <v>14009</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C514" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D514" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E514" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F514" s="1">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>14003</v>
+        <v>14010</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C515" s="1">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D515" s="1">
         <v>0</v>
@@ -14382,270 +14559,130 @@
         <v>0</v>
       </c>
       <c r="F515" s="1">
-        <v>15.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>14004</v>
+        <v>14011</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C516" s="1">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="D516" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E516" s="1">
         <v>0</v>
       </c>
       <c r="F516" s="1">
-        <v>10.4</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>14005</v>
+        <v>14012</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>516</v>
       </c>
       <c r="C517" s="1">
-        <v>23</v>
-      </c>
-      <c r="D517" s="1">
-        <v>0.7</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D517" s="1"/>
       <c r="E517" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F517" s="1">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>14006</v>
+        <v>14013</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C518" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D518" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E518" s="1">
         <v>0</v>
       </c>
       <c r="F518" s="1">
-        <v>4.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>14007</v>
+        <v>14014</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C519" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D519" s="1">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="E519" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F519" s="1">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>14008</v>
+        <v>14015</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C520" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D520" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E520" s="1">
         <v>0</v>
       </c>
       <c r="F520" s="1">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>14009</v>
+        <v>14016</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C521" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D521" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E521" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F521" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A522" s="1">
-        <v>14010</v>
-      </c>
-      <c r="B522" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B525" t="s">
         <v>521</v>
-      </c>
-      <c r="C522" s="1">
-        <v>0</v>
-      </c>
-      <c r="D522" s="1">
-        <v>0</v>
-      </c>
-      <c r="E522" s="1">
-        <v>0</v>
-      </c>
-      <c r="F522" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A523" s="1">
-        <v>14011</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C523" s="1">
-        <v>167</v>
-      </c>
-      <c r="D523" s="1">
-        <v>4</v>
-      </c>
-      <c r="E523" s="1">
-        <v>0</v>
-      </c>
-      <c r="F523" s="1">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A524" s="1">
-        <v>14012</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C524" s="1">
-        <v>273</v>
-      </c>
-      <c r="D524" s="1"/>
-      <c r="E524" s="1">
-        <v>0</v>
-      </c>
-      <c r="F524" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A525" s="1">
-        <v>14013</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C525" s="1">
-        <v>9</v>
-      </c>
-      <c r="D525" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E525" s="1">
-        <v>0</v>
-      </c>
-      <c r="F525" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A526" s="1">
-        <v>14014</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C526" s="1">
-        <v>1</v>
-      </c>
-      <c r="D526" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E526" s="1">
-        <v>0</v>
-      </c>
-      <c r="F526" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A527" s="1">
-        <v>14015</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C527" s="1">
-        <v>24</v>
-      </c>
-      <c r="D527" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E527" s="1">
-        <v>0</v>
-      </c>
-      <c r="F527" s="1">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A528" s="1">
-        <v>14016</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C528" s="1">
-        <v>0</v>
-      </c>
-      <c r="D528" s="1">
-        <v>0</v>
-      </c>
-      <c r="E528" s="1">
-        <v>0</v>
-      </c>
-      <c r="F528" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B532" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/Groceries.xlsx
+++ b/app/src/main/assets/Groceries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D5B4B-995C-6B4F-9BC7-6C4F1D6B02B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E252F-2697-0B49-819F-FC3AEF861C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
+    <workbookView xWindow="620" yWindow="740" windowWidth="27640" windowHeight="16940" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D172C0-E49C-4A4B-B529-386C6E53D8C9}">
   <dimension ref="A1:F525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/src/main/assets/Groceries.xlsx
+++ b/app/src/main/assets/Groceries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/AndroidStudioProjects/GoodLife/app/src/main/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E252F-2697-0B49-819F-FC3AEF861C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F6848F-1DDF-4E45-A73D-F76AAF93512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="740" windowWidth="27640" windowHeight="16940" xr2:uid="{A1080689-8EF6-BF4E-ABDD-CAE289005151}"/>
   </bookViews>
@@ -1621,7 +1621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1644,13 +1644,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1985,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D172C0-E49C-4A4B-B529-386C6E53D8C9}">
-  <dimension ref="A1:F525"/>
+  <dimension ref="A1:G525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I517" sqref="I517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4278,7 @@
     <col min="16093" max="16093" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1001</v>
       </c>
@@ -4285,8 +4297,11 @@
       <c r="F1" s="1">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1002</v>
       </c>
@@ -4305,8 +4320,11 @@
       <c r="F2" s="1">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1003</v>
       </c>
@@ -4325,8 +4343,11 @@
       <c r="F3" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1004</v>
       </c>
@@ -4345,8 +4366,11 @@
       <c r="F4" s="1">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1005</v>
       </c>
@@ -4365,8 +4389,11 @@
       <c r="F5" s="1">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1006</v>
       </c>
@@ -4385,8 +4412,11 @@
       <c r="F6" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1007</v>
       </c>
@@ -4405,8 +4435,11 @@
       <c r="F7" s="1">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1008</v>
       </c>
@@ -4425,8 +4458,11 @@
       <c r="F8" s="1">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1009</v>
       </c>
@@ -4445,8 +4481,11 @@
       <c r="F9" s="1">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1010</v>
       </c>
@@ -4465,8 +4504,11 @@
       <c r="F10" s="1">
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1011</v>
       </c>
@@ -4485,8 +4527,11 @@
       <c r="F11" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1012</v>
       </c>
@@ -4505,8 +4550,11 @@
       <c r="F12" s="1">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1013</v>
       </c>
@@ -4525,8 +4573,11 @@
       <c r="F13" s="1">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1014</v>
       </c>
@@ -4545,8 +4596,11 @@
       <c r="F14" s="1">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1015</v>
       </c>
@@ -4565,8 +4619,11 @@
       <c r="F15" s="1">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1016</v>
       </c>
@@ -4585,8 +4642,11 @@
       <c r="F16" s="1">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1017</v>
       </c>
@@ -4605,8 +4665,11 @@
       <c r="F17" s="1">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1018</v>
       </c>
@@ -4625,8 +4688,11 @@
       <c r="F18" s="1">
         <v>73.599999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1019</v>
       </c>
@@ -4645,8 +4711,11 @@
       <c r="F19" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1020</v>
       </c>
@@ -4665,8 +4734,11 @@
       <c r="F20" s="1">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1021</v>
       </c>
@@ -4685,8 +4757,11 @@
       <c r="F21" s="1">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1022</v>
       </c>
@@ -4705,8 +4780,11 @@
       <c r="F22" s="1">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1023</v>
       </c>
@@ -4725,8 +4803,11 @@
       <c r="F23" s="1">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2001</v>
       </c>
@@ -4745,8 +4826,11 @@
       <c r="F24" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -4765,8 +4849,11 @@
       <c r="F25" s="1">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2003</v>
       </c>
@@ -4785,8 +4872,11 @@
       <c r="F26" s="1">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2004</v>
       </c>
@@ -4805,8 +4895,11 @@
       <c r="F27" s="1">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -4825,8 +4918,11 @@
       <c r="F28" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2006</v>
       </c>
@@ -4845,8 +4941,11 @@
       <c r="F29" s="1">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2007</v>
       </c>
@@ -4865,8 +4964,11 @@
       <c r="F30" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -4885,8 +4987,11 @@
       <c r="F31" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2009</v>
       </c>
@@ -4905,8 +5010,11 @@
       <c r="F32" s="1">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2010</v>
       </c>
@@ -4925,8 +5033,11 @@
       <c r="F33" s="1">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2011</v>
       </c>
@@ -4945,8 +5056,11 @@
       <c r="F34" s="1">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2012</v>
       </c>
@@ -4965,8 +5079,11 @@
       <c r="F35" s="1">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -4985,8 +5102,11 @@
       <c r="F36" s="1">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2014</v>
       </c>
@@ -5005,8 +5125,11 @@
       <c r="F37" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -5025,8 +5148,11 @@
       <c r="F38" s="1">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
@@ -5045,8 +5171,11 @@
       <c r="F39" s="1">
         <v>84.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2017</v>
       </c>
@@ -5065,8 +5194,11 @@
       <c r="F40" s="1">
         <v>80.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2018</v>
       </c>
@@ -5085,8 +5217,11 @@
       <c r="F41" s="1">
         <v>84.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2019</v>
       </c>
@@ -5105,8 +5240,11 @@
       <c r="F42" s="1">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2020</v>
       </c>
@@ -5125,8 +5263,11 @@
       <c r="F43" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2021</v>
       </c>
@@ -5145,8 +5286,11 @@
       <c r="F44" s="1">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2022</v>
       </c>
@@ -5165,8 +5309,11 @@
       <c r="F45" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2023</v>
       </c>
@@ -5185,8 +5332,11 @@
       <c r="F46" s="1">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2024</v>
       </c>
@@ -5205,8 +5355,11 @@
       <c r="F47" s="1">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2025</v>
       </c>
@@ -5225,8 +5378,11 @@
       <c r="F48" s="1">
         <v>80.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2026</v>
       </c>
@@ -5245,8 +5401,11 @@
       <c r="F49" s="1">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>3001</v>
       </c>
@@ -5265,8 +5424,11 @@
       <c r="F50" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>3002</v>
       </c>
@@ -5285,8 +5447,11 @@
       <c r="F51" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>3003</v>
       </c>
@@ -5305,8 +5470,11 @@
       <c r="F52" s="1">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>3004</v>
       </c>
@@ -5325,8 +5493,11 @@
       <c r="F53" s="1">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>3005</v>
       </c>
@@ -5345,8 +5516,11 @@
       <c r="F54" s="1">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3006</v>
       </c>
@@ -5365,8 +5539,11 @@
       <c r="F55" s="1">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3007</v>
       </c>
@@ -5385,8 +5562,11 @@
       <c r="F56" s="1">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3008</v>
       </c>
@@ -5405,8 +5585,11 @@
       <c r="F57" s="1">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>3009</v>
       </c>
@@ -5425,8 +5608,11 @@
       <c r="F58" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>3010</v>
       </c>
@@ -5445,8 +5631,11 @@
       <c r="F59" s="1">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>3011</v>
       </c>
@@ -5465,8 +5654,11 @@
       <c r="F60" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>3012</v>
       </c>
@@ -5485,8 +5677,11 @@
       <c r="F61" s="1">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>3013</v>
       </c>
@@ -5505,8 +5700,11 @@
       <c r="F62" s="1">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>3014</v>
       </c>
@@ -5525,8 +5723,11 @@
       <c r="F63" s="1">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>3015</v>
       </c>
@@ -5545,8 +5746,11 @@
       <c r="F64" s="1">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>3016</v>
       </c>
@@ -5565,8 +5769,11 @@
       <c r="F65" s="1">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>3017</v>
       </c>
@@ -5585,8 +5792,11 @@
       <c r="F66" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>3018</v>
       </c>
@@ -5605,8 +5815,11 @@
       <c r="F67" s="1">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>3019</v>
       </c>
@@ -5625,8 +5838,11 @@
       <c r="F68" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>3020</v>
       </c>
@@ -5645,8 +5861,11 @@
       <c r="F69" s="1">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>3021</v>
       </c>
@@ -5665,8 +5884,11 @@
       <c r="F70" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>3022</v>
       </c>
@@ -5685,8 +5907,11 @@
       <c r="F71" s="1">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>3023</v>
       </c>
@@ -5705,8 +5930,11 @@
       <c r="F72" s="1">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>3024</v>
       </c>
@@ -5725,8 +5953,11 @@
       <c r="F73" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>3025</v>
       </c>
@@ -5745,8 +5976,11 @@
       <c r="F74" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>3026</v>
       </c>
@@ -5765,8 +5999,11 @@
       <c r="F75" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3027</v>
       </c>
@@ -5785,8 +6022,11 @@
       <c r="F76" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>3028</v>
       </c>
@@ -5805,8 +6045,11 @@
       <c r="F77" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>3029</v>
       </c>
@@ -5825,8 +6068,11 @@
       <c r="F78" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>3030</v>
       </c>
@@ -5845,8 +6091,11 @@
       <c r="F79" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>3031</v>
       </c>
@@ -5865,8 +6114,11 @@
       <c r="F80" s="1">
         <v>48.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>3032</v>
       </c>
@@ -5885,8 +6137,11 @@
       <c r="F81" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>3033</v>
       </c>
@@ -5905,8 +6160,11 @@
       <c r="F82" s="1">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>4001</v>
       </c>
@@ -5925,8 +6183,11 @@
       <c r="F83" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>4002</v>
       </c>
@@ -5945,8 +6206,11 @@
       <c r="F84" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>4003</v>
       </c>
@@ -5965,8 +6229,11 @@
       <c r="F85" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4004</v>
       </c>
@@ -5985,8 +6252,11 @@
       <c r="F86" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>4005</v>
       </c>
@@ -6005,8 +6275,11 @@
       <c r="F87" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>4006</v>
       </c>
@@ -6025,8 +6298,11 @@
       <c r="F88" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>4007</v>
       </c>
@@ -6045,8 +6321,11 @@
       <c r="F89" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>4008</v>
       </c>
@@ -6065,8 +6344,11 @@
       <c r="F90" s="1">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>4009</v>
       </c>
@@ -6085,8 +6367,11 @@
       <c r="F91" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>4010</v>
       </c>
@@ -6105,8 +6390,11 @@
       <c r="F92" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>4011</v>
       </c>
@@ -6125,8 +6413,11 @@
       <c r="F93" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>4012</v>
       </c>
@@ -6145,8 +6436,11 @@
       <c r="F94" s="1">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>4013</v>
       </c>
@@ -6165,8 +6459,11 @@
       <c r="F95" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>4014</v>
       </c>
@@ -6185,8 +6482,11 @@
       <c r="F96" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>4015</v>
       </c>
@@ -6205,8 +6505,11 @@
       <c r="F97" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>4016</v>
       </c>
@@ -6225,8 +6528,11 @@
       <c r="F98" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>4017</v>
       </c>
@@ -6245,8 +6551,11 @@
       <c r="F99" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>4018</v>
       </c>
@@ -6265,8 +6574,11 @@
       <c r="F100" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>4019</v>
       </c>
@@ -6285,8 +6597,11 @@
       <c r="F101" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>4020</v>
       </c>
@@ -6305,8 +6620,11 @@
       <c r="F102" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>4021</v>
       </c>
@@ -6325,8 +6643,11 @@
       <c r="F103" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>4022</v>
       </c>
@@ -6345,8 +6666,11 @@
       <c r="F104" s="1">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>4023</v>
       </c>
@@ -6365,8 +6689,11 @@
       <c r="F105" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>4024</v>
       </c>
@@ -6385,8 +6712,11 @@
       <c r="F106" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4025</v>
       </c>
@@ -6405,8 +6735,11 @@
       <c r="F107" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>4026</v>
       </c>
@@ -6425,8 +6758,11 @@
       <c r="F108" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>4027</v>
       </c>
@@ -6445,8 +6781,11 @@
       <c r="F109" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>4028</v>
       </c>
@@ -6465,8 +6804,11 @@
       <c r="F110" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>111</v>
@@ -6483,8 +6825,11 @@
       <c r="F111" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>4029</v>
       </c>
@@ -6503,8 +6848,11 @@
       <c r="F112" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>4030</v>
       </c>
@@ -6523,8 +6871,11 @@
       <c r="F113" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>4031</v>
       </c>
@@ -6543,8 +6894,11 @@
       <c r="F114" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>4032</v>
       </c>
@@ -6563,8 +6917,11 @@
       <c r="F115" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>4033</v>
       </c>
@@ -6583,8 +6940,11 @@
       <c r="F116" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>4034</v>
       </c>
@@ -6603,8 +6963,11 @@
       <c r="F117" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>4035</v>
       </c>
@@ -6623,8 +6986,11 @@
       <c r="F118" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>4036</v>
       </c>
@@ -6643,8 +7009,11 @@
       <c r="F119" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>4037</v>
       </c>
@@ -6663,8 +7032,11 @@
       <c r="F120" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>4038</v>
       </c>
@@ -6683,8 +7055,11 @@
       <c r="F121" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>4039</v>
       </c>
@@ -6703,8 +7078,11 @@
       <c r="F122" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>4040</v>
       </c>
@@ -6723,8 +7101,11 @@
       <c r="F123" s="1">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>4041</v>
       </c>
@@ -6743,8 +7124,11 @@
       <c r="F124" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>4042</v>
       </c>
@@ -6763,8 +7147,11 @@
       <c r="F125" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>4043</v>
       </c>
@@ -6783,8 +7170,11 @@
       <c r="F126" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>4044</v>
       </c>
@@ -6803,8 +7193,11 @@
       <c r="F127" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>4045</v>
       </c>
@@ -6823,8 +7216,11 @@
       <c r="F128" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>4046</v>
       </c>
@@ -6843,8 +7239,11 @@
       <c r="F129" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>4047</v>
       </c>
@@ -6863,8 +7262,11 @@
       <c r="F130" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>4048</v>
       </c>
@@ -6883,8 +7285,11 @@
       <c r="F131" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>4049</v>
       </c>
@@ -6903,8 +7308,11 @@
       <c r="F132" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>4050</v>
       </c>
@@ -6923,8 +7331,11 @@
       <c r="F133" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>4051</v>
       </c>
@@ -6943,8 +7354,11 @@
       <c r="F134" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>4052</v>
       </c>
@@ -6963,8 +7377,11 @@
       <c r="F135" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>4053</v>
       </c>
@@ -6983,8 +7400,11 @@
       <c r="F136" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>4054</v>
       </c>
@@ -7003,8 +7423,11 @@
       <c r="F137" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>4055</v>
       </c>
@@ -7023,8 +7446,11 @@
       <c r="F138" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>4056</v>
       </c>
@@ -7043,8 +7469,11 @@
       <c r="F139" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>4057</v>
       </c>
@@ -7063,8 +7492,11 @@
       <c r="F140" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>4058</v>
       </c>
@@ -7083,8 +7515,11 @@
       <c r="F141" s="1">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>4059</v>
       </c>
@@ -7103,8 +7538,11 @@
       <c r="F142" s="1">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>4060</v>
       </c>
@@ -7123,8 +7561,11 @@
       <c r="F143" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>4061</v>
       </c>
@@ -7143,8 +7584,11 @@
       <c r="F144" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>4062</v>
       </c>
@@ -7163,8 +7607,11 @@
       <c r="F145" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>4063</v>
       </c>
@@ -7183,8 +7630,11 @@
       <c r="F146" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>4064</v>
       </c>
@@ -7203,8 +7653,11 @@
       <c r="F147" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>4065</v>
       </c>
@@ -7223,8 +7676,11 @@
       <c r="F148" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>4066</v>
       </c>
@@ -7243,8 +7699,11 @@
       <c r="F149" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>4067</v>
       </c>
@@ -7263,8 +7722,11 @@
       <c r="F150" s="1">
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>4068</v>
       </c>
@@ -7283,8 +7745,11 @@
       <c r="F151" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>4069</v>
       </c>
@@ -7303,8 +7768,11 @@
       <c r="F152" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>4070</v>
       </c>
@@ -7323,8 +7791,11 @@
       <c r="F153" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>4071</v>
       </c>
@@ -7343,8 +7814,11 @@
       <c r="F154" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>4072</v>
       </c>
@@ -7363,8 +7837,11 @@
       <c r="F155" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>4073</v>
       </c>
@@ -7383,8 +7860,11 @@
       <c r="F156" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>4074</v>
       </c>
@@ -7403,8 +7883,11 @@
       <c r="F157" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>4075</v>
       </c>
@@ -7423,8 +7906,11 @@
       <c r="F158" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>4076</v>
       </c>
@@ -7443,8 +7929,11 @@
       <c r="F159" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>4077</v>
       </c>
@@ -7463,8 +7952,11 @@
       <c r="F160" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>4078</v>
       </c>
@@ -7483,8 +7975,11 @@
       <c r="F161" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>4079</v>
       </c>
@@ -7503,8 +7998,11 @@
       <c r="F162" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>4080</v>
       </c>
@@ -7523,8 +8021,11 @@
       <c r="F163" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>4081</v>
       </c>
@@ -7543,8 +8044,11 @@
       <c r="F164" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>4082</v>
       </c>
@@ -7563,8 +8067,11 @@
       <c r="F165" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>4083</v>
       </c>
@@ -7583,8 +8090,11 @@
       <c r="F166" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>4084</v>
       </c>
@@ -7603,8 +8113,11 @@
       <c r="F167" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>4085</v>
       </c>
@@ -7623,8 +8136,11 @@
       <c r="F168" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>4086</v>
       </c>
@@ -7643,8 +8159,11 @@
       <c r="F169" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>4087</v>
       </c>
@@ -7663,8 +8182,11 @@
       <c r="F170" s="1">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>4088</v>
       </c>
@@ -7683,8 +8205,11 @@
       <c r="F171" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>4089</v>
       </c>
@@ -7703,8 +8228,11 @@
       <c r="F172" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>4090</v>
       </c>
@@ -7723,8 +8251,11 @@
       <c r="F173" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>4091</v>
       </c>
@@ -7743,8 +8274,11 @@
       <c r="F174" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>4092</v>
       </c>
@@ -7763,8 +8297,11 @@
       <c r="F175" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>4093</v>
       </c>
@@ -7783,8 +8320,11 @@
       <c r="F176" s="1">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>4094</v>
       </c>
@@ -7803,8 +8343,11 @@
       <c r="F177" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>4095</v>
       </c>
@@ -7823,8 +8366,11 @@
       <c r="F178" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>4096</v>
       </c>
@@ -7843,8 +8389,11 @@
       <c r="F179" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>4097</v>
       </c>
@@ -7863,8 +8412,11 @@
       <c r="F180" s="1">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>4098</v>
       </c>
@@ -7883,8 +8435,11 @@
       <c r="F181" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>4099</v>
       </c>
@@ -7903,8 +8458,11 @@
       <c r="F182" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>4100</v>
       </c>
@@ -7923,8 +8481,11 @@
       <c r="F183" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>4101</v>
       </c>
@@ -7943,8 +8504,11 @@
       <c r="F184" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>4102</v>
       </c>
@@ -7963,8 +8527,11 @@
       <c r="F185" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>4103</v>
       </c>
@@ -7983,8 +8550,11 @@
       <c r="F186" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>4104</v>
       </c>
@@ -8003,8 +8573,11 @@
       <c r="F187" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>4105</v>
       </c>
@@ -8023,8 +8596,11 @@
       <c r="F188" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>4106</v>
       </c>
@@ -8043,8 +8619,11 @@
       <c r="F189" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>4107</v>
       </c>
@@ -8063,8 +8642,11 @@
       <c r="F190" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>4108</v>
       </c>
@@ -8083,8 +8665,11 @@
       <c r="F191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>4109</v>
       </c>
@@ -8103,8 +8688,11 @@
       <c r="F192" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>4110</v>
       </c>
@@ -8123,8 +8711,11 @@
       <c r="F193" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>4111</v>
       </c>
@@ -8143,8 +8734,11 @@
       <c r="F194" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>4112</v>
       </c>
@@ -8163,8 +8757,11 @@
       <c r="F195" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>4113</v>
       </c>
@@ -8183,8 +8780,11 @@
       <c r="F196" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>4114</v>
       </c>
@@ -8203,8 +8803,11 @@
       <c r="F197" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>4115</v>
       </c>
@@ -8223,8 +8826,11 @@
       <c r="F198" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>4116</v>
       </c>
@@ -8243,8 +8849,11 @@
       <c r="F199" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>4117</v>
       </c>
@@ -8263,8 +8872,11 @@
       <c r="F200" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>4118</v>
       </c>
@@ -8283,8 +8895,11 @@
       <c r="F201" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>4119</v>
       </c>
@@ -8303,8 +8918,11 @@
       <c r="F202" s="1">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>4120</v>
       </c>
@@ -8323,8 +8941,11 @@
       <c r="F203" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>4121</v>
       </c>
@@ -8343,8 +8964,11 @@
       <c r="F204" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>4122</v>
       </c>
@@ -8363,8 +8987,11 @@
       <c r="F205" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>4123</v>
       </c>
@@ -8383,8 +9010,11 @@
       <c r="F206" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>4124</v>
       </c>
@@ -8403,8 +9033,11 @@
       <c r="F207" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>4125</v>
       </c>
@@ -8423,8 +9056,11 @@
       <c r="F208" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>4126</v>
       </c>
@@ -8443,8 +9079,11 @@
       <c r="F209" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>5001</v>
       </c>
@@ -8463,8 +9102,11 @@
       <c r="F210" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>5002</v>
       </c>
@@ -8483,8 +9125,11 @@
       <c r="F211" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>5003</v>
       </c>
@@ -8503,8 +9148,11 @@
       <c r="F212" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>5004</v>
       </c>
@@ -8523,8 +9171,11 @@
       <c r="F213" s="1">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>5005</v>
       </c>
@@ -8543,8 +9194,11 @@
       <c r="F214" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>5006</v>
       </c>
@@ -8563,8 +9217,11 @@
       <c r="F215" s="1">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>5007</v>
       </c>
@@ -8583,8 +9240,11 @@
       <c r="F216" s="1">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>5008</v>
       </c>
@@ -8603,8 +9263,11 @@
       <c r="F217" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>5009</v>
       </c>
@@ -8623,8 +9286,11 @@
       <c r="F218" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>5010</v>
       </c>
@@ -8643,8 +9309,11 @@
       <c r="F219" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>5011</v>
       </c>
@@ -8663,8 +9332,11 @@
       <c r="F220" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>5012</v>
       </c>
@@ -8683,8 +9355,11 @@
       <c r="F221" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>5013</v>
       </c>
@@ -8703,8 +9378,11 @@
       <c r="F222" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>5014</v>
       </c>
@@ -8723,8 +9401,11 @@
       <c r="F223" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G223" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>5015</v>
       </c>
@@ -8743,8 +9424,11 @@
       <c r="F224" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>5016</v>
       </c>
@@ -8763,8 +9447,11 @@
       <c r="F225" s="1">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>5017</v>
       </c>
@@ -8783,8 +9470,11 @@
       <c r="F226" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>5018</v>
       </c>
@@ -8803,8 +9493,11 @@
       <c r="F227" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>5019</v>
       </c>
@@ -8823,8 +9516,11 @@
       <c r="F228" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G228" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>5020</v>
       </c>
@@ -8843,8 +9539,11 @@
       <c r="F229" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>5021</v>
       </c>
@@ -8863,8 +9562,11 @@
       <c r="F230" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>5022</v>
       </c>
@@ -8883,8 +9585,11 @@
       <c r="F231" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>5023</v>
       </c>
@@ -8903,8 +9608,11 @@
       <c r="F232" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>5024</v>
       </c>
@@ -8923,8 +9631,11 @@
       <c r="F233" s="1">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>5025</v>
       </c>
@@ -8943,8 +9654,11 @@
       <c r="F234" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>5026</v>
       </c>
@@ -8963,8 +9677,11 @@
       <c r="F235" s="1">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>5027</v>
       </c>
@@ -8983,8 +9700,11 @@
       <c r="F236" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>5028</v>
       </c>
@@ -9003,8 +9723,11 @@
       <c r="F237" s="1">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>5029</v>
       </c>
@@ -9023,8 +9746,11 @@
       <c r="F238" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>5030</v>
       </c>
@@ -9043,8 +9769,11 @@
       <c r="F239" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>5031</v>
       </c>
@@ -9063,8 +9792,11 @@
       <c r="F240" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>5032</v>
       </c>
@@ -9083,8 +9815,11 @@
       <c r="F241" s="1">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>5033</v>
       </c>
@@ -9103,8 +9838,11 @@
       <c r="F242" s="1">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>5034</v>
       </c>
@@ -9123,8 +9861,11 @@
       <c r="F243" s="1">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>5035</v>
       </c>
@@ -9143,8 +9884,11 @@
       <c r="F244" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>5036</v>
       </c>
@@ -9163,8 +9907,11 @@
       <c r="F245" s="1">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>5037</v>
       </c>
@@ -9183,8 +9930,11 @@
       <c r="F246" s="1">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>5038</v>
       </c>
@@ -9203,8 +9953,11 @@
       <c r="F247" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>5039</v>
       </c>
@@ -9223,8 +9976,11 @@
       <c r="F248" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>5040</v>
       </c>
@@ -9243,8 +9999,11 @@
       <c r="F249" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>5041</v>
       </c>
@@ -9263,8 +10022,11 @@
       <c r="F250" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>5042</v>
       </c>
@@ -9283,8 +10045,11 @@
       <c r="F251" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>5043</v>
       </c>
@@ -9303,8 +10068,11 @@
       <c r="F252" s="1">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>5044</v>
       </c>
@@ -9323,8 +10091,11 @@
       <c r="F253" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>5045</v>
       </c>
@@ -9343,8 +10114,11 @@
       <c r="F254" s="1">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>5046</v>
       </c>
@@ -9363,8 +10137,11 @@
       <c r="F255" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>5047</v>
       </c>
@@ -9383,8 +10160,11 @@
       <c r="F256" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>5048</v>
       </c>
@@ -9403,8 +10183,11 @@
       <c r="F257" s="1">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G257" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>5049</v>
       </c>
@@ -9423,8 +10206,11 @@
       <c r="F258" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>5050</v>
       </c>
@@ -9443,8 +10229,11 @@
       <c r="F259" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>5051</v>
       </c>
@@ -9463,8 +10252,11 @@
       <c r="F260" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>5052</v>
       </c>
@@ -9483,8 +10275,11 @@
       <c r="F261" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G261" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>5053</v>
       </c>
@@ -9503,8 +10298,11 @@
       <c r="F262" s="1">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>5054</v>
       </c>
@@ -9523,8 +10321,11 @@
       <c r="F263" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>5055</v>
       </c>
@@ -9543,8 +10344,11 @@
       <c r="F264" s="1">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>5056</v>
       </c>
@@ -9563,8 +10367,11 @@
       <c r="F265" s="1">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>6001</v>
       </c>
@@ -9583,8 +10390,11 @@
       <c r="F266" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>6002</v>
       </c>
@@ -9603,8 +10413,11 @@
       <c r="F267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>6003</v>
       </c>
@@ -9623,8 +10436,11 @@
       <c r="F268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>6004</v>
       </c>
@@ -9643,8 +10459,11 @@
       <c r="F269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>6005</v>
       </c>
@@ -9663,8 +10482,11 @@
       <c r="F270" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>6006</v>
       </c>
@@ -9683,8 +10505,11 @@
       <c r="F271" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G271" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>6007</v>
       </c>
@@ -9703,8 +10528,11 @@
       <c r="F272" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G272" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>6008</v>
       </c>
@@ -9723,8 +10551,11 @@
       <c r="F273" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G273" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>6009</v>
       </c>
@@ -9743,8 +10574,11 @@
       <c r="F274" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>6010</v>
       </c>
@@ -9763,8 +10597,11 @@
       <c r="F275" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>6011</v>
       </c>
@@ -9783,8 +10620,11 @@
       <c r="F276" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>6012</v>
       </c>
@@ -9803,8 +10643,11 @@
       <c r="F277" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G277" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>6013</v>
       </c>
@@ -9823,8 +10666,11 @@
       <c r="F278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>6014</v>
       </c>
@@ -9843,8 +10689,11 @@
       <c r="F279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>7001</v>
       </c>
@@ -9863,8 +10712,11 @@
       <c r="F280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>7002</v>
       </c>
@@ -9883,8 +10735,11 @@
       <c r="F281" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>7003</v>
       </c>
@@ -9903,8 +10758,11 @@
       <c r="F282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>7004</v>
       </c>
@@ -9923,8 +10781,11 @@
       <c r="F283" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>7005</v>
       </c>
@@ -9943,8 +10804,11 @@
       <c r="F284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>7006</v>
       </c>
@@ -9963,8 +10827,11 @@
       <c r="F285" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>7007</v>
       </c>
@@ -9983,8 +10850,11 @@
       <c r="F286" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G286" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>7008</v>
       </c>
@@ -10003,8 +10873,11 @@
       <c r="F287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>7009</v>
       </c>
@@ -10023,8 +10896,11 @@
       <c r="F288" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>7010</v>
       </c>
@@ -10043,8 +10919,11 @@
       <c r="F289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>7011</v>
       </c>
@@ -10063,8 +10942,11 @@
       <c r="F290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>7012</v>
       </c>
@@ -10083,8 +10965,11 @@
       <c r="F291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>7013</v>
       </c>
@@ -10103,8 +10988,11 @@
       <c r="F292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>7014</v>
       </c>
@@ -10123,8 +11011,11 @@
       <c r="F293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>7015</v>
       </c>
@@ -10143,8 +11034,11 @@
       <c r="F294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>7016</v>
       </c>
@@ -10163,8 +11057,11 @@
       <c r="F295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>7017</v>
       </c>
@@ -10183,8 +11080,11 @@
       <c r="F296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>7018</v>
       </c>
@@ -10203,8 +11103,11 @@
       <c r="F297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>7018</v>
       </c>
@@ -10223,8 +11126,11 @@
       <c r="F298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>7019</v>
       </c>
@@ -10243,8 +11149,11 @@
       <c r="F299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>7020</v>
       </c>
@@ -10263,8 +11172,11 @@
       <c r="F300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>7021</v>
       </c>
@@ -10283,8 +11195,11 @@
       <c r="F301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>7022</v>
       </c>
@@ -10303,8 +11218,11 @@
       <c r="F302" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G302" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>7023</v>
       </c>
@@ -10323,8 +11241,11 @@
       <c r="F303" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G303" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>7024</v>
       </c>
@@ -10343,8 +11264,11 @@
       <c r="F304" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G304" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>7025</v>
       </c>
@@ -10363,8 +11287,11 @@
       <c r="F305" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G305" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>7026</v>
       </c>
@@ -10383,8 +11310,11 @@
       <c r="F306" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>7027</v>
       </c>
@@ -10403,8 +11333,11 @@
       <c r="F307" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G307" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>7028</v>
       </c>
@@ -10423,8 +11356,11 @@
       <c r="F308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G308" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>7029</v>
       </c>
@@ -10443,8 +11379,11 @@
       <c r="F309" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G309" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>7030</v>
       </c>
@@ -10463,8 +11402,11 @@
       <c r="F310" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G310" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>7031</v>
       </c>
@@ -10483,8 +11425,11 @@
       <c r="F311" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G311" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>7032</v>
       </c>
@@ -10503,8 +11448,11 @@
       <c r="F312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G312" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>7033</v>
       </c>
@@ -10523,8 +11471,11 @@
       <c r="F313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G313" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>7034</v>
       </c>
@@ -10543,8 +11494,11 @@
       <c r="F314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G314" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>7035</v>
       </c>
@@ -10563,8 +11517,11 @@
       <c r="F315" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G315" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>7036</v>
       </c>
@@ -10583,8 +11540,11 @@
       <c r="F316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>7037</v>
       </c>
@@ -10603,8 +11563,11 @@
       <c r="F317" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G317" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>7038</v>
       </c>
@@ -10623,8 +11586,11 @@
       <c r="F318" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G318" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>7039</v>
       </c>
@@ -10643,8 +11609,11 @@
       <c r="F319" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G319" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>7040</v>
       </c>
@@ -10663,8 +11632,11 @@
       <c r="F320" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G320" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>7041</v>
       </c>
@@ -10683,8 +11655,11 @@
       <c r="F321" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G321" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>7042</v>
       </c>
@@ -10703,8 +11678,11 @@
       <c r="F322" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>7043</v>
       </c>
@@ -10723,8 +11701,11 @@
       <c r="F323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G323" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>7044</v>
       </c>
@@ -10743,8 +11724,11 @@
       <c r="F324" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G324" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>7045</v>
       </c>
@@ -10763,8 +11747,11 @@
       <c r="F325" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G325" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>7046</v>
       </c>
@@ -10783,8 +11770,11 @@
       <c r="F326" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G326" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>7047</v>
       </c>
@@ -10803,8 +11793,11 @@
       <c r="F327" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G327" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>7048</v>
       </c>
@@ -10823,8 +11816,11 @@
       <c r="F328" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G328" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>7049</v>
       </c>
@@ -10843,8 +11839,11 @@
       <c r="F329" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G329" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>7050</v>
       </c>
@@ -10863,8 +11862,11 @@
       <c r="F330" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G330" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>7051</v>
       </c>
@@ -10883,8 +11885,11 @@
       <c r="F331" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G331" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>7052</v>
       </c>
@@ -10903,8 +11908,11 @@
       <c r="F332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G332" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>7053</v>
       </c>
@@ -10923,8 +11931,11 @@
       <c r="F333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G333" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>7053</v>
       </c>
@@ -10943,8 +11954,11 @@
       <c r="F334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G334" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>7054</v>
       </c>
@@ -10963,8 +11977,11 @@
       <c r="F335" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G335" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>7055</v>
       </c>
@@ -10983,8 +12000,11 @@
       <c r="F336" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G336" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>7056</v>
       </c>
@@ -11003,8 +12023,11 @@
       <c r="F337" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G337" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>7057</v>
       </c>
@@ -11023,8 +12046,11 @@
       <c r="F338" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G338" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>7058</v>
       </c>
@@ -11043,8 +12069,11 @@
       <c r="F339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G339" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>7059</v>
       </c>
@@ -11063,8 +12092,11 @@
       <c r="F340" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G340" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>7060</v>
       </c>
@@ -11083,8 +12115,11 @@
       <c r="F341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G341" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>7061</v>
       </c>
@@ -11103,8 +12138,11 @@
       <c r="F342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G342" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>7062</v>
       </c>
@@ -11123,8 +12161,11 @@
       <c r="F343" s="1">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G343" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>7063</v>
       </c>
@@ -11143,8 +12184,11 @@
       <c r="F344" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G344" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>7064</v>
       </c>
@@ -11163,8 +12207,11 @@
       <c r="F345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G345" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>7065</v>
       </c>
@@ -11183,8 +12230,11 @@
       <c r="F346" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G346" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>7066</v>
       </c>
@@ -11203,8 +12253,11 @@
       <c r="F347" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G347" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>7067</v>
       </c>
@@ -11223,8 +12276,11 @@
       <c r="F348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G348" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>7068</v>
       </c>
@@ -11243,8 +12299,11 @@
       <c r="F349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G349" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>7069</v>
       </c>
@@ -11263,8 +12322,11 @@
       <c r="F350" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G350" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>7070</v>
       </c>
@@ -11283,8 +12345,11 @@
       <c r="F351" s="1">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G351" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>7071</v>
       </c>
@@ -11303,8 +12368,11 @@
       <c r="F352" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G352" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>7072</v>
       </c>
@@ -11323,8 +12391,11 @@
       <c r="F353" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G353" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>7073</v>
       </c>
@@ -11343,8 +12414,11 @@
       <c r="F354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G354" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>7074</v>
       </c>
@@ -11363,8 +12437,11 @@
       <c r="F355" s="1">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G355" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>7075</v>
       </c>
@@ -11383,8 +12460,11 @@
       <c r="F356" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G356" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>7076</v>
       </c>
@@ -11403,8 +12483,11 @@
       <c r="F357" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G357" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>7077</v>
       </c>
@@ -11423,8 +12506,11 @@
       <c r="F358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G358" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>7078</v>
       </c>
@@ -11443,8 +12529,11 @@
       <c r="F359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G359" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>7079</v>
       </c>
@@ -11463,8 +12552,11 @@
       <c r="F360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G360" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>7080</v>
       </c>
@@ -11483,8 +12575,11 @@
       <c r="F361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G361" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>7081</v>
       </c>
@@ -11503,8 +12598,11 @@
       <c r="F362" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G362" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>8001</v>
       </c>
@@ -11523,8 +12621,11 @@
       <c r="F363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G363" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>8002</v>
       </c>
@@ -11543,8 +12644,11 @@
       <c r="F364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G364" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>8003</v>
       </c>
@@ -11563,8 +12667,11 @@
       <c r="F365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G365" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>8004</v>
       </c>
@@ -11583,8 +12690,11 @@
       <c r="F366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G366" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>8005</v>
       </c>
@@ -11603,8 +12713,11 @@
       <c r="F367" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G367" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>8006</v>
       </c>
@@ -11623,8 +12736,11 @@
       <c r="F368" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G368" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>8007</v>
       </c>
@@ -11643,8 +12759,11 @@
       <c r="F369" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G369" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>8008</v>
       </c>
@@ -11663,8 +12782,11 @@
       <c r="F370" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G370" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>8009</v>
       </c>
@@ -11683,8 +12805,11 @@
       <c r="F371" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G371" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>8010</v>
       </c>
@@ -11703,8 +12828,11 @@
       <c r="F372" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G372" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>8011</v>
       </c>
@@ -11723,8 +12851,11 @@
       <c r="F373" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G373" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>8012</v>
       </c>
@@ -11743,8 +12874,11 @@
       <c r="F374" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G374" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>8013</v>
       </c>
@@ -11763,8 +12897,11 @@
       <c r="F375" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G375" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>8014</v>
       </c>
@@ -11783,8 +12920,11 @@
       <c r="F376" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G376" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>8015</v>
       </c>
@@ -11803,8 +12943,11 @@
       <c r="F377" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G377" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>8016</v>
       </c>
@@ -11823,8 +12966,11 @@
       <c r="F378" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G378" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>8017</v>
       </c>
@@ -11843,8 +12989,11 @@
       <c r="F379" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G379" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>8018</v>
       </c>
@@ -11863,8 +13012,11 @@
       <c r="F380" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G380" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>8019</v>
       </c>
@@ -11883,8 +13035,11 @@
       <c r="F381" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G381" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>8020</v>
       </c>
@@ -11903,8 +13058,11 @@
       <c r="F382" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G382" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>8021</v>
       </c>
@@ -11923,8 +13081,11 @@
       <c r="F383" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G383" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>8022</v>
       </c>
@@ -11943,8 +13104,11 @@
       <c r="F384" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>8023</v>
       </c>
@@ -11963,8 +13127,11 @@
       <c r="F385" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G385" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>8024</v>
       </c>
@@ -11983,8 +13150,11 @@
       <c r="F386" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G386" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>8025</v>
       </c>
@@ -12003,8 +13173,11 @@
       <c r="F387" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G387" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>8026</v>
       </c>
@@ -12023,8 +13196,11 @@
       <c r="F388" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G388" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>8027</v>
       </c>
@@ -12043,8 +13219,11 @@
       <c r="F389" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G389" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>8028</v>
       </c>
@@ -12063,8 +13242,11 @@
       <c r="F390" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G390" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>8029</v>
       </c>
@@ -12083,8 +13265,11 @@
       <c r="F391" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G391" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>8030</v>
       </c>
@@ -12103,8 +13288,11 @@
       <c r="F392" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G392" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>8031</v>
       </c>
@@ -12123,8 +13311,11 @@
       <c r="F393" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G393" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>8032</v>
       </c>
@@ -12143,8 +13334,11 @@
       <c r="F394" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G394" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>8033</v>
       </c>
@@ -12163,8 +13357,11 @@
       <c r="F395" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G395" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>8034</v>
       </c>
@@ -12183,8 +13380,11 @@
       <c r="F396" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G396" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>8035</v>
       </c>
@@ -12203,8 +13403,11 @@
       <c r="F397" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G397" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>8036</v>
       </c>
@@ -12223,8 +13426,11 @@
       <c r="F398" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G398" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>8037</v>
       </c>
@@ -12243,8 +13449,11 @@
       <c r="F399" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G399" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>8038</v>
       </c>
@@ -12263,8 +13472,11 @@
       <c r="F400" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G400" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>8039</v>
       </c>
@@ -12283,8 +13495,11 @@
       <c r="F401" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G401" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>8040</v>
       </c>
@@ -12303,8 +13518,11 @@
       <c r="F402" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G402" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>8041</v>
       </c>
@@ -12323,8 +13541,11 @@
       <c r="F403" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G403" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>8042</v>
       </c>
@@ -12343,8 +13564,11 @@
       <c r="F404" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G404" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>8043</v>
       </c>
@@ -12363,8 +13587,11 @@
       <c r="F405" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G405" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>8044</v>
       </c>
@@ -12383,8 +13610,11 @@
       <c r="F406" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G406" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>8045</v>
       </c>
@@ -12403,8 +13633,11 @@
       <c r="F407" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G407" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>8046</v>
       </c>
@@ -12423,8 +13656,11 @@
       <c r="F408" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G408" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>8047</v>
       </c>
@@ -12443,8 +13679,11 @@
       <c r="F409" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G409" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>8048</v>
       </c>
@@ -12463,8 +13702,11 @@
       <c r="F410" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G410" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>8049</v>
       </c>
@@ -12483,8 +13725,11 @@
       <c r="F411" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G411" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>8050</v>
       </c>
@@ -12503,8 +13748,11 @@
       <c r="F412" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G412" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>8051</v>
       </c>
@@ -12523,8 +13771,11 @@
       <c r="F413" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G413" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>8052</v>
       </c>
@@ -12543,8 +13794,11 @@
       <c r="F414" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G414" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>8053</v>
       </c>
@@ -12563,8 +13817,11 @@
       <c r="F415" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G415" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>8054</v>
       </c>
@@ -12583,8 +13840,11 @@
       <c r="F416" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G416" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>8055</v>
       </c>
@@ -12603,8 +13863,11 @@
       <c r="F417" s="1">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G417" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>8056</v>
       </c>
@@ -12623,8 +13886,11 @@
       <c r="F418" s="1">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G418" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>8057</v>
       </c>
@@ -12643,8 +13909,11 @@
       <c r="F419" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G419" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>8058</v>
       </c>
@@ -12663,8 +13932,11 @@
       <c r="F420" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G420" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>8059</v>
       </c>
@@ -12683,8 +13955,11 @@
       <c r="F421" s="1">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G421" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>9001</v>
       </c>
@@ -12703,8 +13978,11 @@
       <c r="F422" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G422" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>9002</v>
       </c>
@@ -12723,8 +14001,11 @@
       <c r="F423" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G423" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>9003</v>
       </c>
@@ -12743,8 +14024,11 @@
       <c r="F424" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G424" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>9004</v>
       </c>
@@ -12763,8 +14047,11 @@
       <c r="F425" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G425" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>9005</v>
       </c>
@@ -12783,8 +14070,11 @@
       <c r="F426" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G426" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>9006</v>
       </c>
@@ -12803,8 +14093,11 @@
       <c r="F427" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G427" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>9007</v>
       </c>
@@ -12823,8 +14116,11 @@
       <c r="F428" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G428" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>9008</v>
       </c>
@@ -12843,8 +14139,11 @@
       <c r="F429" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G429" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>9009</v>
       </c>
@@ -12863,8 +14162,11 @@
       <c r="F430" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G430" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>9010</v>
       </c>
@@ -12883,8 +14185,11 @@
       <c r="F431" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G431" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>9011</v>
       </c>
@@ -12903,8 +14208,11 @@
       <c r="F432" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G432" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>10001</v>
       </c>
@@ -12923,8 +14231,11 @@
       <c r="F433" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G433" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>10002</v>
       </c>
@@ -12943,8 +14254,11 @@
       <c r="F434" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G434" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>10003</v>
       </c>
@@ -12963,8 +14277,11 @@
       <c r="F435" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G435" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>10004</v>
       </c>
@@ -12983,8 +14300,11 @@
       <c r="F436" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G436" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>10005</v>
       </c>
@@ -13003,8 +14323,11 @@
       <c r="F437" s="1">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G437" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>10006</v>
       </c>
@@ -13023,8 +14346,11 @@
       <c r="F438" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G438" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>10007</v>
       </c>
@@ -13043,8 +14369,11 @@
       <c r="F439" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G439" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>10008</v>
       </c>
@@ -13063,8 +14392,11 @@
       <c r="F440" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G440" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>10009</v>
       </c>
@@ -13083,8 +14415,11 @@
       <c r="F441" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G441" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>11001</v>
       </c>
@@ -13103,8 +14438,11 @@
       <c r="F442" s="1">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G442" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>11002</v>
       </c>
@@ -13123,8 +14461,11 @@
       <c r="F443" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G443" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>11003</v>
       </c>
@@ -13143,8 +14484,11 @@
       <c r="F444" s="1">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G444" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>11004</v>
       </c>
@@ -13163,8 +14507,11 @@
       <c r="F445" s="1">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G445" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>11005</v>
       </c>
@@ -13183,8 +14530,11 @@
       <c r="F446" s="1">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G446" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>11006</v>
       </c>
@@ -13203,8 +14553,11 @@
       <c r="F447" s="1">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G447" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>11007</v>
       </c>
@@ -13223,8 +14576,11 @@
       <c r="F448" s="1">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G448" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>11008</v>
       </c>
@@ -13243,8 +14599,11 @@
       <c r="F449" s="1">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G449" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>11009</v>
       </c>
@@ -13263,8 +14622,11 @@
       <c r="F450" s="1">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G450" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>11010</v>
       </c>
@@ -13283,8 +14645,11 @@
       <c r="F451" s="1">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G451" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>11011</v>
       </c>
@@ -13303,8 +14668,11 @@
       <c r="F452" s="1">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G452" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>11012</v>
       </c>
@@ -13323,8 +14691,11 @@
       <c r="F453" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G453" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>11013</v>
       </c>
@@ -13343,8 +14714,11 @@
       <c r="F454" s="1">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G454" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>11014</v>
       </c>
@@ -13363,8 +14737,11 @@
       <c r="F455" s="1">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G455" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>11015</v>
       </c>
@@ -13383,8 +14760,11 @@
       <c r="F456" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G456" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>11016</v>
       </c>
@@ -13403,8 +14783,11 @@
       <c r="F457" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G457" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>11017</v>
       </c>
@@ -13423,8 +14806,11 @@
       <c r="F458" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G458" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>11018</v>
       </c>
@@ -13443,8 +14829,11 @@
       <c r="F459" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G459" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>11019</v>
       </c>
@@ -13463,8 +14852,11 @@
       <c r="F460" s="1">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G460" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>11020</v>
       </c>
@@ -13483,8 +14875,11 @@
       <c r="F461" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G461" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>11021</v>
       </c>
@@ -13503,8 +14898,11 @@
       <c r="F462" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G462" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>12001</v>
       </c>
@@ -13523,8 +14921,11 @@
       <c r="F463" s="1">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G463" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>12002</v>
       </c>
@@ -13543,8 +14944,11 @@
       <c r="F464" s="1">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G464" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>12003</v>
       </c>
@@ -13563,8 +14967,11 @@
       <c r="F465" s="1">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G465" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>12004</v>
       </c>
@@ -13583,8 +14990,11 @@
       <c r="F466" s="1">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G466" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>12005</v>
       </c>
@@ -13603,8 +15013,11 @@
       <c r="F467" s="1">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G467" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>12006</v>
       </c>
@@ -13623,8 +15036,11 @@
       <c r="F468" s="1">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G468" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>12007</v>
       </c>
@@ -13643,8 +15059,11 @@
       <c r="F469" s="1">
         <v>90.2</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G469" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>12008</v>
       </c>
@@ -13663,8 +15082,11 @@
       <c r="F470" s="1">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G470" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>12009</v>
       </c>
@@ -13683,8 +15105,11 @@
       <c r="F471" s="1">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G471" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>12010</v>
       </c>
@@ -13703,8 +15128,11 @@
       <c r="F472" s="1">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G472" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>12011</v>
       </c>
@@ -13723,8 +15151,11 @@
       <c r="F473" s="1">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G473" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>12012</v>
       </c>
@@ -13743,8 +15174,11 @@
       <c r="F474" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G474" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>12013</v>
       </c>
@@ -13763,8 +15197,11 @@
       <c r="F475" s="1">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G475" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>12014</v>
       </c>
@@ -13783,8 +15220,11 @@
       <c r="F476" s="1">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G476" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>12015</v>
       </c>
@@ -13803,8 +15243,11 @@
       <c r="F477" s="1">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G477" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>12016</v>
       </c>
@@ -13823,8 +15266,11 @@
       <c r="F478" s="1">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G478" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>12017</v>
       </c>
@@ -13843,8 +15289,11 @@
       <c r="F479" s="1">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G479" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>12018</v>
       </c>
@@ -13863,8 +15312,11 @@
       <c r="F480" s="1">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G480" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>12019</v>
       </c>
@@ -13883,8 +15335,11 @@
       <c r="F481" s="1">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G481" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>12020</v>
       </c>
@@ -13903,8 +15358,11 @@
       <c r="F482" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G482" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>12021</v>
       </c>
@@ -13923,8 +15381,11 @@
       <c r="F483" s="1">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G483" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>12022</v>
       </c>
@@ -13943,8 +15404,11 @@
       <c r="F484" s="1">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G484" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>12023</v>
       </c>
@@ -13963,8 +15427,11 @@
       <c r="F485" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G485" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>12024</v>
       </c>
@@ -13983,8 +15450,11 @@
       <c r="F486" s="1">
         <v>85.9</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G486" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>12025</v>
       </c>
@@ -14003,8 +15473,11 @@
       <c r="F487" s="1">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G487" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>12026</v>
       </c>
@@ -14023,8 +15496,11 @@
       <c r="F488" s="1">
         <v>81.3</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G488" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>12027</v>
       </c>
@@ -14043,8 +15519,11 @@
       <c r="F489" s="1">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G489" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>13001</v>
       </c>
@@ -14063,8 +15542,11 @@
       <c r="F490" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G490" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>13002</v>
       </c>
@@ -14083,8 +15565,11 @@
       <c r="F491" s="1">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G491" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>13003</v>
       </c>
@@ -14103,8 +15588,11 @@
       <c r="F492" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G492" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>13004</v>
       </c>
@@ -14123,8 +15611,11 @@
       <c r="F493" s="1">
         <v>34.1</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G493" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>13005</v>
       </c>
@@ -14143,8 +15634,11 @@
       <c r="F494" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G494" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>13006</v>
       </c>
@@ -14163,8 +15657,11 @@
       <c r="F495" s="1">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G495" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>13007</v>
       </c>
@@ -14183,8 +15680,11 @@
       <c r="F496" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G496" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>13008</v>
       </c>
@@ -14203,8 +15703,11 @@
       <c r="F497" s="1">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G497" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>13009</v>
       </c>
@@ -14221,8 +15724,11 @@
       <c r="F498" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G498" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>13010</v>
       </c>
@@ -14241,8 +15747,11 @@
       <c r="F499" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G499" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>13011</v>
       </c>
@@ -14261,8 +15770,11 @@
       <c r="F500" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G500" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>13012</v>
       </c>
@@ -14281,8 +15793,11 @@
       <c r="F501" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G501" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>13013</v>
       </c>
@@ -14301,8 +15816,11 @@
       <c r="F502" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G502" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>13015</v>
       </c>
@@ -14321,8 +15839,11 @@
       <c r="F503" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G503" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>13022</v>
       </c>
@@ -14341,8 +15862,11 @@
       <c r="F504" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G504" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>13023</v>
       </c>
@@ -14361,8 +15885,11 @@
       <c r="F505" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G505" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>14001</v>
       </c>
@@ -14381,8 +15908,11 @@
       <c r="F506" s="1">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G506" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>14002</v>
       </c>
@@ -14401,8 +15931,11 @@
       <c r="F507" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G507" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>14003</v>
       </c>
@@ -14421,8 +15954,11 @@
       <c r="F508" s="1">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G508" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>14004</v>
       </c>
@@ -14441,8 +15977,11 @@
       <c r="F509" s="1">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G509" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>14005</v>
       </c>
@@ -14461,8 +16000,11 @@
       <c r="F510" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G510" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>14006</v>
       </c>
@@ -14481,8 +16023,11 @@
       <c r="F511" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G511" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>14007</v>
       </c>
@@ -14501,8 +16046,11 @@
       <c r="F512" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G512" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>14008</v>
       </c>
@@ -14521,8 +16069,11 @@
       <c r="F513" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G513" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>14009</v>
       </c>
@@ -14541,8 +16092,11 @@
       <c r="F514" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G514" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>14010</v>
       </c>
@@ -14561,8 +16115,11 @@
       <c r="F515" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G515" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>14011</v>
       </c>
@@ -14581,8 +16138,11 @@
       <c r="F516" s="1">
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G516" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>14012</v>
       </c>
@@ -14599,8 +16159,11 @@
       <c r="F517" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G517" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>14013</v>
       </c>
@@ -14619,8 +16182,11 @@
       <c r="F518" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G518" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>14014</v>
       </c>
@@ -14639,8 +16205,11 @@
       <c r="F519" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G519" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>14015</v>
       </c>
@@ -14659,8 +16228,11 @@
       <c r="F520" s="1">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G520" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>14016</v>
       </c>
@@ -14679,8 +16251,11 @@
       <c r="F521" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G521" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>521</v>
       </c>
